--- a/_Doc/20230208/sku/Import Sup SKU.xlsx
+++ b/_Doc/20230208/sku/Import Sup SKU.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c4f5ef82ac553bb0/UBC/รอลบ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\ubproject\_Doc\20230208\sku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AE30DE4-195C-4441-85AC-84898B327232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBD1764-A721-4B45-B5AF-C104AD902E4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A9111011-DEF7-4C18-8B89-F807860154B1}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>รหัสสินค้าของ Vendor</t>
   </si>
@@ -60,17 +49,20 @@
   </si>
   <si>
     <t>NV</t>
+  </si>
+  <si>
+    <t>A1111255</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -140,7 +132,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -156,7 +148,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -444,7 +436,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -452,19 +444,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26882A8-49A4-4B8B-9312-4768001CAC6F}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="25.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,6 +480,32 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>5000</v>
+      </c>
+      <c r="C2">
+        <v>4000</v>
+      </c>
+      <c r="D2">
+        <v>5500</v>
+      </c>
+      <c r="E2">
+        <v>5000</v>
+      </c>
+      <c r="F2">
+        <v>4500</v>
+      </c>
+      <c r="G2">
+        <v>4300</v>
+      </c>
+      <c r="H2">
+        <v>4200</v>
       </c>
     </row>
   </sheetData>
